--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>57</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42587.819594907407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>12637</v>
+      </c>
+      <c r="D5">
+        <v>9491</v>
+      </c>
+      <c r="E5">
+        <v>568</v>
+      </c>
+      <c r="F5">
+        <v>114</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42588.471574074072</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>11854</v>
+      </c>
+      <c r="D6">
+        <v>5914</v>
+      </c>
+      <c r="E6">
+        <v>380</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -651,6 +651,498 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42600.782094907408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>13012</v>
+      </c>
+      <c r="D7">
+        <v>5465</v>
+      </c>
+      <c r="E7">
+        <v>329</v>
+      </c>
+      <c r="F7">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42600.804664351854</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>12598</v>
+      </c>
+      <c r="D8">
+        <v>5260</v>
+      </c>
+      <c r="E8">
+        <v>325</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42600.806817129633</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>12109</v>
+      </c>
+      <c r="D9">
+        <v>5266</v>
+      </c>
+      <c r="E9">
+        <v>326</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42600.823229166665</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>10245</v>
+      </c>
+      <c r="D10">
+        <v>4852</v>
+      </c>
+      <c r="E10">
+        <v>301</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42600.830243055556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>12770</v>
+      </c>
+      <c r="D11">
+        <v>5197</v>
+      </c>
+      <c r="E11">
+        <v>322</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42600.84170138889</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>11644</v>
+      </c>
+      <c r="D12">
+        <v>5469</v>
+      </c>
+      <c r="E12">
+        <v>331</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42600.861226851855</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>10121</v>
+      </c>
+      <c r="D13">
+        <v>4888</v>
+      </c>
+      <c r="E13">
+        <v>297</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42600.868344907409</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10340</v>
+      </c>
+      <c r="D14">
+        <v>4698</v>
+      </c>
+      <c r="E14">
+        <v>279</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42600.878541666665</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>10578</v>
+      </c>
+      <c r="D15">
+        <v>5161</v>
+      </c>
+      <c r="E15">
+        <v>306</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="I15">
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42600.883969907409</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>10429</v>
+      </c>
+      <c r="D16">
+        <v>5145</v>
+      </c>
+      <c r="E16">
+        <v>313</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42600.885185185187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>11286</v>
+      </c>
+      <c r="D17">
+        <v>5149</v>
+      </c>
+      <c r="E17">
+        <v>315</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42600.886354166665</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>10306</v>
+      </c>
+      <c r="D18">
+        <v>4791</v>
+      </c>
+      <c r="E18">
+        <v>292</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,6 +1143,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42601.898912037039</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>12991</v>
+      </c>
+      <c r="D19">
+        <v>7780</v>
+      </c>
+      <c r="E19">
+        <v>483</v>
+      </c>
+      <c r="F19">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,6 +1184,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42602.58184027778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>10245</v>
+      </c>
+      <c r="D20">
+        <v>8234</v>
+      </c>
+      <c r="E20">
+        <v>510</v>
+      </c>
+      <c r="F20">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>41</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42602.980011574073</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>8861</v>
+      </c>
+      <c r="D21">
+        <v>5187</v>
+      </c>
+      <c r="E21">
+        <v>299</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42603.694513888891</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>5238</v>
+      </c>
+      <c r="D22">
+        <v>1974</v>
+      </c>
+      <c r="E22">
+        <v>132</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>66</v>
+      </c>
+      <c r="I22">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1307,6 +1307,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42604.890208333331</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>9496</v>
+      </c>
+      <c r="D23">
+        <v>6125</v>
+      </c>
+      <c r="E23">
+        <v>394</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42605.885381944441</v>
+      </c>
+      <c r="B3">
+        <v>-34</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>25349</v>
+      </c>
+      <c r="H3">
+        <v>6426</v>
+      </c>
+      <c r="I3">
+        <v>376</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>53</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,94 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42606.565162037034</v>
+      </c>
+      <c r="B4">
+        <v>-34</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>11687</v>
+      </c>
+      <c r="H4">
+        <v>7610</v>
+      </c>
+      <c r="I4">
+        <v>432</v>
+      </c>
+      <c r="J4">
+        <v>67</v>
+      </c>
+      <c r="K4">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42606.572326388887</v>
+      </c>
+      <c r="B5">
+        <v>-28</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>14060</v>
+      </c>
+      <c r="H5">
+        <v>9391</v>
+      </c>
+      <c r="I5">
+        <v>498</v>
+      </c>
+      <c r="J5">
+        <v>111</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42606.881076388891</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11035</v>
+      </c>
+      <c r="H6">
+        <v>7550</v>
+      </c>
+      <c r="I6">
+        <v>425</v>
+      </c>
+      <c r="J6">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42607.886458333334</v>
+      </c>
+      <c r="B7">
+        <v>-12</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>83</v>
+      </c>
+      <c r="G7">
+        <v>17249</v>
+      </c>
+      <c r="H7">
+        <v>17426</v>
+      </c>
+      <c r="I7">
+        <v>986</v>
+      </c>
+      <c r="J7">
+        <v>174</v>
+      </c>
+      <c r="K7">
+        <v>146</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42608.88890046296</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>27300</v>
+      </c>
+      <c r="H8">
+        <v>23374</v>
+      </c>
+      <c r="I8">
+        <v>1363</v>
+      </c>
+      <c r="J8">
+        <v>270</v>
+      </c>
+      <c r="K8">
+        <v>237</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,6 +760,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42611.883692129632</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>19635</v>
+      </c>
+      <c r="H9">
+        <v>18974</v>
+      </c>
+      <c r="I9">
+        <v>1081</v>
+      </c>
+      <c r="J9">
+        <v>206</v>
+      </c>
+      <c r="K9">
+        <v>189</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,6 +804,94 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42612.883032407408</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>14722</v>
+      </c>
+      <c r="H10">
+        <v>13875</v>
+      </c>
+      <c r="I10">
+        <v>881</v>
+      </c>
+      <c r="J10">
+        <v>129</v>
+      </c>
+      <c r="K10">
+        <v>138</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42612.88958333333</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>19463</v>
+      </c>
+      <c r="H11">
+        <v>15316</v>
+      </c>
+      <c r="I11">
+        <v>973</v>
+      </c>
+      <c r="J11">
+        <v>156</v>
+      </c>
+      <c r="K11">
+        <v>160</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +892,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42613.757210648146</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>20739</v>
+      </c>
+      <c r="H12">
+        <v>17144</v>
+      </c>
+      <c r="I12">
+        <v>1027</v>
+      </c>
+      <c r="J12">
+        <v>169</v>
+      </c>
+      <c r="K12">
+        <v>134</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42613.884363425925</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>11512</v>
+      </c>
+      <c r="H13">
+        <v>9142</v>
+      </c>
+      <c r="I13">
+        <v>559</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42614.883136574077</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>21435</v>
+      </c>
+      <c r="H14">
+        <v>21016</v>
+      </c>
+      <c r="I14">
+        <v>1192</v>
+      </c>
+      <c r="J14">
+        <v>188</v>
+      </c>
+      <c r="K14">
+        <v>210</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42615.884039351855</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>21433</v>
+      </c>
+      <c r="H15">
+        <v>20343</v>
+      </c>
+      <c r="I15">
+        <v>1185</v>
+      </c>
+      <c r="J15">
+        <v>190</v>
+      </c>
+      <c r="K15">
+        <v>169</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42619.890405092592</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>22512</v>
+      </c>
+      <c r="H16">
+        <v>22157</v>
+      </c>
+      <c r="I16">
+        <v>1223</v>
+      </c>
+      <c r="J16">
+        <v>273</v>
+      </c>
+      <c r="K16">
+        <v>193</v>
+      </c>
+      <c r="L16">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,6 +1112,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42620.885636574072</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>26587</v>
+      </c>
+      <c r="H17">
+        <v>21209</v>
+      </c>
+      <c r="I17">
+        <v>1239</v>
+      </c>
+      <c r="J17">
+        <v>253</v>
+      </c>
+      <c r="K17">
+        <v>167</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,6 +1156,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42621.886087962965</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>21900</v>
+      </c>
+      <c r="H18">
+        <v>22583</v>
+      </c>
+      <c r="I18">
+        <v>1102</v>
+      </c>
+      <c r="J18">
+        <v>248</v>
+      </c>
+      <c r="K18">
+        <v>158</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,6 +1200,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42622.885833333334</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>21008</v>
+      </c>
+      <c r="H19">
+        <v>18381</v>
+      </c>
+      <c r="I19">
+        <v>999</v>
+      </c>
+      <c r="J19">
+        <v>214</v>
+      </c>
+      <c r="K19">
+        <v>111</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1244,6 +1244,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42624.619722222225</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>9081</v>
+      </c>
+      <c r="H20">
+        <v>6589</v>
+      </c>
+      <c r="I20">
+        <v>437</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>61</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,6 +1288,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42625.883379629631</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>18760</v>
+      </c>
+      <c r="H21">
+        <v>16061</v>
+      </c>
+      <c r="I21">
+        <v>893</v>
+      </c>
+      <c r="J21">
+        <v>214</v>
+      </c>
+      <c r="K21">
+        <v>151</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,6 +581,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42632.878750000003</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>17236</v>
+      </c>
+      <c r="F3">
+        <v>891</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>18436</v>
+      </c>
+      <c r="L3">
+        <v>202</v>
+      </c>
+      <c r="M3">
+        <v>142</v>
+      </c>
+      <c r="N3">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>-31.57</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-8.72E-2</v>
+      </c>
+      <c r="T3">
+        <v>-0.74</v>
+      </c>
+      <c r="U3">
+        <v>6.75</v>
+      </c>
+      <c r="V3">
+        <v>1.88</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Named</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,7 +442,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42629.498020833336</v>
       </c>
@@ -581,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42632.878750000003</v>
       </c>
@@ -649,6 +652,83 @@
         <v>1.88</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.884317129632</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>20499</v>
+      </c>
+      <c r="F4">
+        <v>980</v>
+      </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>88</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>23028</v>
+      </c>
+      <c r="L4">
+        <v>219</v>
+      </c>
+      <c r="M4">
+        <v>118</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>-31.95</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="T4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="U4">
+        <v>6.77</v>
+      </c>
+      <c r="V4">
+        <v>1.88</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,6 +731,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>2.1400000000000006</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.889664351853</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>19445</v>
+      </c>
+      <c r="F5">
+        <v>1125</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>23034</v>
+      </c>
+      <c r="L5">
+        <v>206</v>
+      </c>
+      <c r="M5">
+        <v>169</v>
+      </c>
+      <c r="N5">
+        <v>22</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>-31.95</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-4.9200000000000001E-2</v>
+      </c>
+      <c r="T5">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="U5">
+        <v>7.01</v>
+      </c>
+      <c r="V5">
+        <v>1.88</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,6 +814,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>-0.33000200000000746</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42635.885659722226</v>
+      </c>
+      <c r="B6">
+        <v>-9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>18239</v>
+      </c>
+      <c r="F6">
+        <v>915</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
+      </c>
+      <c r="K6">
+        <v>24139</v>
+      </c>
+      <c r="L6">
+        <v>167</v>
+      </c>
+      <c r="M6">
+        <v>155</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>59.116582970799591</v>
+      </c>
+      <c r="R6">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6">
+        <v>1.88</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Named</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -424,25 +427,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -592,6 +595,83 @@
       <c r="W2">
         <v>2</v>
       </c>
+      <c r="X2">
+        <v>-0.37999700000000303</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42640.881145833337</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>25268</v>
+      </c>
+      <c r="F3">
+        <v>1357</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>28492</v>
+      </c>
+      <c r="L3">
+        <v>282</v>
+      </c>
+      <c r="M3">
+        <v>145</v>
+      </c>
+      <c r="N3">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>63.999985999970043</v>
+      </c>
+      <c r="R3">
+        <v>-33</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-6.0299999999999999E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.46E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.91</v>
+      </c>
+      <c r="V3">
+        <v>1.88</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -433,19 +433,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -427,25 +430,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -672,6 +675,83 @@
       <c r="W3">
         <v>2</v>
       </c>
+      <c r="X3">
+        <v>-6.9999999999993179E-2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.890092592592</v>
+      </c>
+      <c r="B4">
+        <v>-11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>-16</v>
+      </c>
+      <c r="E4">
+        <v>13848</v>
+      </c>
+      <c r="F4">
+        <v>723</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <v>18805</v>
+      </c>
+      <c r="L4">
+        <v>144</v>
+      </c>
+      <c r="M4">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>64.728146835133757</v>
+      </c>
+      <c r="R4">
+        <v>-32.1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-7.5499999999999998E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="U4">
+        <v>6.79</v>
+      </c>
+      <c r="V4">
+        <v>1.88</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -436,19 +436,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Sell</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -430,25 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -752,6 +755,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>-0.15000200000000063</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42642.880046296297</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>16797</v>
+      </c>
+      <c r="F5">
+        <v>965</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>99</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>18497</v>
+      </c>
+      <c r="L5">
+        <v>194</v>
+      </c>
+      <c r="M5">
+        <v>119</v>
+      </c>
+      <c r="N5">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>60.270219174531491</v>
+      </c>
+      <c r="R5">
+        <v>-32</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-7.8200000000000006E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="U5">
+        <v>6.77</v>
+      </c>
+      <c r="V5">
+        <v>1.88</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\GILD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\GILD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>UpDown</t>
-  </si>
-  <si>
-    <t>Buy</t>
   </si>
   <si>
     <t>Named</t>
@@ -433,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -533,303 +532,149 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42639.880613425928</v>
+        <v>42641.890092592592</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>-16</v>
+      </c>
+      <c r="E2">
+        <v>13848</v>
+      </c>
+      <c r="F2">
+        <v>723</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>73</v>
+      </c>
+      <c r="K2">
+        <v>18805</v>
+      </c>
+      <c r="L2">
+        <v>144</v>
+      </c>
+      <c r="M2">
+        <v>111</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>27251</v>
-      </c>
-      <c r="F2">
-        <v>1383</v>
-      </c>
-      <c r="G2">
-        <v>61</v>
-      </c>
-      <c r="H2">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>71</v>
-      </c>
-      <c r="J2">
-        <v>28</v>
-      </c>
-      <c r="K2">
-        <v>33263</v>
-      </c>
-      <c r="L2">
-        <v>322</v>
-      </c>
-      <c r="M2">
-        <v>195</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
       <c r="Q2">
-        <v>67.61653910163524</v>
+        <v>64.728146835133757</v>
       </c>
       <c r="R2">
-        <v>-33</v>
+        <v>-32.1</v>
       </c>
       <c r="S2" s="2">
-        <v>-5.2600000000000001E-2</v>
+        <v>-7.5499999999999998E-2</v>
       </c>
       <c r="T2" s="2">
-        <v>2.41E-2</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="U2">
-        <v>6.97</v>
+        <v>6.79</v>
       </c>
       <c r="V2">
         <v>1.88</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-0.37999700000000303</v>
+        <v>-0.15000200000000063</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.881145833337</v>
+        <v>42642.880046296297</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>16797</v>
+      </c>
+      <c r="F3">
+        <v>965</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>99</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>18497</v>
+      </c>
+      <c r="L3">
+        <v>194</v>
+      </c>
+      <c r="M3">
+        <v>119</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>25268</v>
-      </c>
-      <c r="F3">
-        <v>1357</v>
-      </c>
-      <c r="G3">
-        <v>64</v>
-      </c>
-      <c r="H3">
-        <v>33</v>
-      </c>
-      <c r="I3">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>48</v>
-      </c>
-      <c r="K3">
-        <v>28492</v>
-      </c>
-      <c r="L3">
-        <v>282</v>
-      </c>
-      <c r="M3">
-        <v>145</v>
-      </c>
-      <c r="N3">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
       <c r="Q3">
-        <v>63.999985999970043</v>
+        <v>60.270219174531491</v>
       </c>
       <c r="R3">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="S3" s="2">
-        <v>-6.0299999999999999E-2</v>
+        <v>-7.8200000000000006E-2</v>
       </c>
       <c r="T3" s="2">
-        <v>1.46E-2</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="U3">
-        <v>6.91</v>
+        <v>6.77</v>
       </c>
       <c r="V3">
         <v>1.88</v>
       </c>
       <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>-6.9999999999993179E-2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42641.890092592592</v>
-      </c>
-      <c r="B4">
-        <v>-11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>-16</v>
-      </c>
-      <c r="E4">
-        <v>13848</v>
-      </c>
-      <c r="F4">
-        <v>723</v>
-      </c>
-      <c r="G4">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>43</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>73</v>
-      </c>
-      <c r="K4">
-        <v>18805</v>
-      </c>
-      <c r="L4">
-        <v>144</v>
-      </c>
-      <c r="M4">
-        <v>111</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4">
-        <v>64.728146835133757</v>
-      </c>
-      <c r="R4">
-        <v>-32.1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>-7.5499999999999998E-2</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-      <c r="U4">
-        <v>6.79</v>
-      </c>
-      <c r="V4">
-        <v>1.88</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>-0.15000200000000063</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42642.880046296297</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>16797</v>
-      </c>
-      <c r="F5">
-        <v>965</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>36</v>
-      </c>
-      <c r="I5">
-        <v>99</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>18497</v>
-      </c>
-      <c r="L5">
-        <v>194</v>
-      </c>
-      <c r="M5">
-        <v>119</v>
-      </c>
-      <c r="N5">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5">
-        <v>60.270219174531491</v>
-      </c>
-      <c r="R5">
-        <v>-32</v>
-      </c>
-      <c r="S5" s="2">
-        <v>-7.8200000000000006E-2</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-5.8999999999999999E-3</v>
-      </c>
-      <c r="U5">
-        <v>6.77</v>
-      </c>
-      <c r="V5">
-        <v>1.88</v>
-      </c>
-      <c r="W5">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\Packages\Data\GILD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioProjects\StockPredictor\StockPredictor\bin\Debug\packages\Data\GILD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,19 +438,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -438,19 +441,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -677,6 +680,83 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>-1.3000030000000038</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.881736111114</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>19262</v>
+      </c>
+      <c r="F4">
+        <v>1076</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="I4">
+        <v>86</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>20450</v>
+      </c>
+      <c r="L4">
+        <v>174</v>
+      </c>
+      <c r="M4">
+        <v>175</v>
+      </c>
+      <c r="N4">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>53.799662243666852</v>
+      </c>
+      <c r="R4">
+        <v>-32</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-9.06E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="U4">
+        <v>6.67</v>
+      </c>
+      <c r="V4">
+        <v>1.88</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -757,6 +760,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>1.0600050000000039</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42646.878240740742</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>19327</v>
+      </c>
+      <c r="F5">
+        <v>1083</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>23503</v>
+      </c>
+      <c r="L5">
+        <v>191</v>
+      </c>
+      <c r="M5">
+        <v>155</v>
+      </c>
+      <c r="N5">
+        <v>78</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>53.235606944998317</v>
+      </c>
+      <c r="R5">
+        <v>-32.049999999999997</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="U5">
+        <v>6.78</v>
+      </c>
+      <c r="V5">
+        <v>1.88</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -837,6 +837,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>-0.59999799999999937</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42647.883217592593</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>20456</v>
+      </c>
+      <c r="F6">
+        <v>1059</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>22706</v>
+      </c>
+      <c r="L6">
+        <v>200</v>
+      </c>
+      <c r="M6">
+        <v>204</v>
+      </c>
+      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>53.235658945584888</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-8.6199999999999999E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-1.66E-2</v>
+      </c>
+      <c r="U6">
+        <v>6.69</v>
+      </c>
+      <c r="V6">
+        <v>1.88</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -914,6 +914,83 @@
       <c r="W6">
         <v>0</v>
       </c>
+      <c r="X6">
+        <v>-0.35999999999999943</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42648.885277777779</v>
+      </c>
+      <c r="B7">
+        <v>-8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>21108</v>
+      </c>
+      <c r="F7">
+        <v>1173</v>
+      </c>
+      <c r="G7">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>29385</v>
+      </c>
+      <c r="L7">
+        <v>190</v>
+      </c>
+      <c r="M7">
+        <v>155</v>
+      </c>
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>52.976913006825477</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-9.4399999999999998E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>6.62</v>
+      </c>
+      <c r="V7">
+        <v>1.88</v>
+      </c>
+      <c r="W7">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -991,6 +991,83 @@
       <c r="W7">
         <v>-2</v>
       </c>
+      <c r="X7">
+        <v>0.22000199999999381</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42649.879120370373</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>14272</v>
+      </c>
+      <c r="F8">
+        <v>855</v>
+      </c>
+      <c r="G8">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>85</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>19350</v>
+      </c>
+      <c r="L8">
+        <v>129</v>
+      </c>
+      <c r="M8">
+        <v>115</v>
+      </c>
+      <c r="N8">
+        <v>53</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>47.418521827693588</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-8.9899999999999994E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="U8">
+        <v>6.65</v>
+      </c>
+      <c r="V8">
+        <v>1.88</v>
+      </c>
+      <c r="W8">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -1068,6 +1068,83 @@
       <c r="W8">
         <v>-2</v>
       </c>
+      <c r="X8">
+        <v>-1.1699980000000068</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42650.878449074073</v>
+      </c>
+      <c r="B9">
+        <v>-12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>20150</v>
+      </c>
+      <c r="F9">
+        <v>1127</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>73</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>22520</v>
+      </c>
+      <c r="L9">
+        <v>181</v>
+      </c>
+      <c r="M9">
+        <v>168</v>
+      </c>
+      <c r="N9">
+        <v>51</v>
+      </c>
+      <c r="O9">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>41.155689538610147</v>
+      </c>
+      <c r="R9">
+        <v>-24.44</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-0.1052</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+      <c r="U9">
+        <v>6.53</v>
+      </c>
+      <c r="V9">
+        <v>1.88</v>
+      </c>
+      <c r="W9">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -444,19 +444,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -444,19 +444,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1145,6 +1145,83 @@
       <c r="W9">
         <v>-2</v>
       </c>
+      <c r="X9">
+        <v>-1.2099989999999963</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42653.87903935185</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>18948</v>
+      </c>
+      <c r="F10">
+        <v>1018</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>88</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>21712</v>
+      </c>
+      <c r="L10">
+        <v>180</v>
+      </c>
+      <c r="M10">
+        <v>162</v>
+      </c>
+      <c r="N10">
+        <v>74</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>35.550971360736582</v>
+      </c>
+      <c r="R10">
+        <v>-24.44</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U10">
+        <v>6.45</v>
+      </c>
+      <c r="V10">
+        <v>1.88</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/GILD/GILDNamed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
@@ -1222,6 +1222,83 @@
       <c r="W10">
         <v>1</v>
       </c>
+      <c r="X10">
+        <v>-1.0002000000000066E-2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42654.882106481484</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>18896</v>
+      </c>
+      <c r="F11">
+        <v>1072</v>
+      </c>
+      <c r="G11">
+        <v>64</v>
+      </c>
+      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>82</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>28236</v>
+      </c>
+      <c r="L11">
+        <v>209</v>
+      </c>
+      <c r="M11">
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <v>52</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>17.089518681678967</v>
+      </c>
+      <c r="R11">
+        <v>-24.44</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-0.1101</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-4.19E-2</v>
+      </c>
+      <c r="U11">
+        <v>6.47</v>
+      </c>
+      <c r="V11">
+        <v>1.88</v>
+      </c>
+      <c r="W11">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
